--- a/auto/new_data/9_2_Non-ferrous_LME-Zinc.xlsx
+++ b/auto/new_data/9_2_Non-ferrous_LME-Zinc.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7444</t>
+          <t>15865</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1807</t>
+          <t>7780</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>28275</t>
+          <t>30075</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1520</t>
+          <t>1594</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -511,22 +511,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nov 24</t>
+          <t>Dec 24</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1735</t>
+          <t>15145</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12426</t>
+          <t>22670</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -536,22 +536,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dec 24</t>
+          <t>Jan 25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>22327</t>
+          <t>11408</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26068</t>
+          <t>34745</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jan 25</t>
+          <t>Feb 25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17580</t>
+          <t>12732</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31782</t>
+          <t>24323</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -586,22 +586,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Feb 25</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7411</t>
+          <t>10131</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21600</t>
+          <t>21751</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -611,22 +611,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mar 25</t>
+          <t>Apr 25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7178</t>
+          <t>1185</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23183</t>
+          <t>7158</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Apr 25</t>
+          <t>May 25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>1261</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6417</t>
+          <t>14281</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/9_2_Non-ferrous_LME-Zinc.xlsx
+++ b/auto/new_data/9_2_Non-ferrous_LME-Zinc.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15865</t>
+          <t>7958</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7780</t>
+          <t>2482</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>30075</t>
+          <t>27894</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1594</t>
+          <t>1589</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15145</t>
+          <t>4157</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22670</t>
+          <t>20508</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11408</t>
+          <t>12549</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>34745</t>
+          <t>37150</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -566,17 +566,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12732</t>
+          <t>16686</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24323</t>
+          <t>25272</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -591,17 +591,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10131</t>
+          <t>17723</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21751</t>
+          <t>24124</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1185</t>
+          <t>756</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7158</t>
+          <t>7577</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -641,17 +641,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1261</t>
+          <t>891</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>14281</t>
+          <t>14663</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/9_2_Non-ferrous_LME-Zinc.xlsx
+++ b/auto/new_data/9_2_Non-ferrous_LME-Zinc.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7958</t>
+          <t>11717</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2482</t>
+          <t>2934</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>27894</t>
+          <t>23233</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1589</t>
+          <t>1085</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -511,22 +511,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dec 24</t>
+          <t>Jan 25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4157</t>
+          <t>6711</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20508</t>
+          <t>12631</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -536,22 +536,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jan 25</t>
+          <t>Feb 25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12549</t>
+          <t>6149</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>37150</t>
+          <t>24928</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Feb 25</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16686</t>
+          <t>13815</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25272</t>
+          <t>38762</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -586,22 +586,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mar 25</t>
+          <t>Apr 25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17723</t>
+          <t>2959</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24124</t>
+          <t>16955</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -611,22 +611,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Apr 25</t>
+          <t>May 25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>944</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7577</t>
+          <t>14626</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>May 25</t>
+          <t>Jun 25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>891</t>
+          <t>1695</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>14663</t>
+          <t>15267</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
